--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/first-jspsych-exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/czou_bowdoin_edu/Documents/Desktop/Cog Science Lab/project/first-jsPsych-experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F11F1AA-B606-984E-9256-227C29A5546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0F11F1AA-B606-984E-9256-227C29A5546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7765EA30-63FD-5343-ABCF-98E02F119AE3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="3" xr2:uid="{5EADE905-632C-A04D-8302-0650934DE955}"/>
+    <workbookView xWindow="-1420" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{5EADE905-632C-A04D-8302-0650934DE955}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -1168,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461455EC-7FF6-734C-8B0C-36FF87EEEE81}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1181,7 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1214,12 @@
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="str">
+        <f>CONCATENATE("'",B2, "'", ",")</f>
+        <v>'figureN.jpg',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1231,8 +1235,12 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G25" si="0">CONCATENATE("'",B3, "'", ",")</f>
+        <v>'cakeN.jpg',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1248,8 +1256,12 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>'canN.jpg',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1265,8 +1277,12 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>'crackerN.jpg',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1282,8 +1298,12 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>'wineglassN.jpg',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1299,8 +1319,12 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>'eggN.jpg',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1316,8 +1340,12 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>'eggflanS.jpg',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1333,8 +1361,12 @@
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>'blackberryS.jpg',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1350,8 +1382,12 @@
       <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>'glassesS.jpg',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1367,8 +1403,12 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>'hatS.jpg',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1384,8 +1424,12 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>'icecreamS.jpg',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1401,8 +1445,12 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>'iPadS.jpg',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1418,8 +1466,12 @@
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>'iphoneN.png',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1435,8 +1487,12 @@
       <c r="E15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>'lampN.jpg',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1452,8 +1508,12 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>'mirrorN.jpg',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1469,8 +1529,12 @@
       <c r="E17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>'muffinN.jpg',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1486,8 +1550,12 @@
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>'donutN.jpg',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1503,8 +1571,12 @@
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>'tortitaN.jpg',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1520,8 +1592,12 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>'plateS.jpg',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1537,8 +1613,12 @@
       <c r="E21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>'strawberryS.jpg',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1634,12 @@
       <c r="E22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>'sushiS.jpg',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1571,8 +1655,12 @@
       <c r="E23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>'tileS.jpg',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1588,8 +1676,12 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>'tomatoS.jpg',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1604,6 +1696,10 @@
       </c>
       <c r="E25">
         <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>'papercupS.jpg',</v>
       </c>
     </row>
   </sheetData>
@@ -1613,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96021B6-8096-4C43-BB1B-5E1F765C5B4A}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E25"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,7 +1721,7 @@
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -1659,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1675,8 +1771,12 @@
       <c r="E3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G25" si="0">CONCATENATE("'",B3, "'", ",")</f>
+        <v>'cakeS.jpg',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -1692,8 +1792,12 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>'canS.jpg',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1709,8 +1813,12 @@
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>'crackerS.jpg',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1726,8 +1834,12 @@
       <c r="E6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>'wineglassS.jpg',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1743,8 +1855,12 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>'eggS.jpg',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1760,8 +1876,12 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>'eggflanN.jpg',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1777,8 +1897,12 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>'blackberryN.jpg',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -1794,8 +1918,12 @@
       <c r="E10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>'glassesN.jpg',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -1811,8 +1939,12 @@
       <c r="E11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>'hatN.jpg',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -1828,8 +1960,12 @@
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>'icecreamN.jpg',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1845,8 +1981,12 @@
       <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>'iPadN.jpg',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1862,8 +2002,12 @@
       <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>'iphoneS.png',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -1879,8 +2023,12 @@
       <c r="E15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>'lampS.jpg',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1896,8 +2044,12 @@
       <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>'mirrorS.jpg',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -1913,8 +2065,12 @@
       <c r="E17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>'muffinS.jpg',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1930,8 +2086,12 @@
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>'donutS.jpg',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -1947,8 +2107,12 @@
       <c r="E19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>'tortitaS.jpg',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -1964,8 +2128,12 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>'plateN.jpg',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -1981,8 +2149,12 @@
       <c r="E21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>'strawberryN.jpg',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -1998,8 +2170,12 @@
       <c r="E22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>'sushiN.jpg',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -2015,8 +2191,12 @@
       <c r="E23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>'tileN.jpg',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -2032,8 +2212,12 @@
       <c r="E24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>'tomatoN.jpg',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -2048,6 +2232,10 @@
       </c>
       <c r="E25">
         <v>3</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>'papercupN.jpg',</v>
       </c>
     </row>
   </sheetData>
@@ -2057,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F7AE2-45CB-5144-B993-E6D0AB0BEE80}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2257,7 @@
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -2102,8 +2290,12 @@
       <c r="E2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="str">
+        <f>CONCATENATE("'",B2, "'", ",")</f>
+        <v>'figureN.jpg',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2119,8 +2311,12 @@
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G25" si="0">CONCATENATE("'",B3, "'", ",")</f>
+        <v>'cakeN.jpg',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2136,8 +2332,12 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>'canN.jpg',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2153,8 +2353,12 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>'crackerN.jpg',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -2170,8 +2374,12 @@
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>'wineglassN.jpg',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2187,8 +2395,12 @@
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>'eggN.jpg',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2204,8 +2416,12 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>'eggflanS.jpg',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -2221,8 +2437,12 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>'blackberryS.jpg',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2238,8 +2458,12 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>'glassesS.jpg',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2255,8 +2479,12 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>'hatS.jpg',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2272,8 +2500,12 @@
       <c r="E12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>'icecreamS.jpg',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -2289,8 +2521,12 @@
       <c r="E13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>'iPadS.jpg',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -2306,8 +2542,12 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>'iphoneN.png',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2323,8 +2563,12 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>'lampN.jpg',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2340,8 +2584,12 @@
       <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>'mirrorN.jpg',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -2357,8 +2605,12 @@
       <c r="E17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>'muffinN.jpg',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -2374,8 +2626,12 @@
       <c r="E18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>'donutN.jpg',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -2391,8 +2647,12 @@
       <c r="E19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>'tortitaN.jpg',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -2408,8 +2668,12 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>'plateS.jpg',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -2425,8 +2689,12 @@
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>'strawberryS.jpg',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -2442,8 +2710,12 @@
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>'sushiS.jpg',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -2459,8 +2731,12 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>'tileS.jpg',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -2476,8 +2752,12 @@
       <c r="E24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>'tomatoS.jpg',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -2492,6 +2772,10 @@
       </c>
       <c r="E25">
         <v>4</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>'papercupS.jpg',</v>
       </c>
     </row>
   </sheetData>
